--- a/spliced/falling/2023-03-25_18-00-59/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-00-59/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.266226387023926</v>
+        <v>-2.385556173324585</v>
       </c>
       <c r="D2" t="n">
-        <v>2.866149425506591</v>
+        <v>2.812312602996826</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03211449086666163</v>
+        <v>-0.1285117015242577</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0251981914043426</v>
+        <v>-0.0219911485910415</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0255036242306232</v>
+        <v>-0.0158824957907199</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0038179077673703</v>
+        <v>0.0395535230636596</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.475775194168091</v>
+        <v>-2.266226387023926</v>
       </c>
       <c r="D3" t="n">
-        <v>2.822203063964844</v>
+        <v>2.866149425506591</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.136699762195349</v>
+        <v>0.03211449086666163</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01328631862998</v>
+        <v>-0.0251981914043426</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0074830991216003</v>
+        <v>0.0255036242306232</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0119118718430399</v>
+        <v>-0.0038179077673703</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.403434085845947</v>
+        <v>-2.475775194168091</v>
       </c>
       <c r="D4" t="n">
-        <v>2.584281539916992</v>
+        <v>2.822203063964844</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.100419497489932</v>
+        <v>-0.136699762195349</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.022754730656743</v>
+        <v>0.01328631862998</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2061670273542404</v>
+        <v>0.0074830991216003</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06368270516395561</v>
+        <v>-0.0119118718430399</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.276368379592896</v>
+        <v>-2.403434085845947</v>
       </c>
       <c r="D5" t="n">
-        <v>2.15183401107788</v>
+        <v>2.584281539916992</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.987968981266023</v>
+        <v>-1.100419497489932</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0487165041267871</v>
+        <v>-0.022754730656743</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2628247737884521</v>
+        <v>-0.2061670273542404</v>
       </c>
       <c r="H5" t="n">
-        <v>0.072998397052288</v>
+        <v>0.06368270516395561</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.559272384643557</v>
+        <v>-2.276368379592896</v>
       </c>
       <c r="D6" t="n">
-        <v>1.362055969238278</v>
+        <v>2.15183401107788</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.492264986038209</v>
+        <v>-1.987968981266023</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0171042270958423</v>
+        <v>-0.0487165041267871</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4222606122493744</v>
+        <v>-0.2628247737884521</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0635299831628799</v>
+        <v>0.072998397052288</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-3.275786542892459</v>
+        <v>-2.559272384643557</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1545626640319781</v>
+        <v>1.362055969238278</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.795625829696655</v>
+        <v>-2.492264986038209</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0972802937030792</v>
+        <v>-0.0171042270958423</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.4360050559043884</v>
+        <v>-0.4222606122493744</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2139555513858795</v>
+        <v>0.0635299831628799</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-4.113391685485841</v>
+        <v>-3.275786542892459</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.9623365402221682</v>
+        <v>0.1545626640319781</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.931767368316651</v>
+        <v>-2.795625829696655</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0091629782691597</v>
+        <v>0.0972802937030792</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0555887371301651</v>
+        <v>-0.4360050559043884</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3749185502529144</v>
+        <v>0.2139555513858795</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-4.743673324584959</v>
+        <v>-4.113391685485841</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.9649306297302217</v>
+        <v>-0.9623365402221682</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.303337550163267</v>
+        <v>-2.931767368316651</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0091629782691597</v>
+        <v>-0.0091629782691597</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0584903471171855</v>
+        <v>0.0555887371301651</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1916589736938476</v>
+        <v>0.3749185502529144</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-3.626681327819824</v>
+        <v>-4.743673324584959</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6835670471191406</v>
+        <v>-0.9649306297302217</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.28171181678772</v>
+        <v>-3.303337550163267</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.408974289894104</v>
+        <v>0.0091629782691597</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4970915913581848</v>
+        <v>0.0584903471171855</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3481931984424591</v>
+        <v>0.1916589736938476</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-2.572325563430785</v>
+        <v>-3.626681327819824</v>
       </c>
       <c r="D11" t="n">
-        <v>0.671577787399292</v>
+        <v>0.6835670471191406</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.271707224845887</v>
+        <v>-2.28171181678772</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.9280570149421692</v>
+        <v>-0.408974289894104</v>
       </c>
       <c r="G11" t="n">
-        <v>2.348929643630981</v>
+        <v>0.4970915913581848</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.768275022506714</v>
+        <v>0.3481931984424591</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-6.29947957992554</v>
+        <v>-2.572325563430785</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9659337997436523</v>
+        <v>0.671577787399292</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.046118927001951</v>
+        <v>-3.271707224845887</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9198103547096252</v>
+        <v>-0.9280570149421692</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2131919711828231</v>
+        <v>2.348929643630981</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3013092875480652</v>
+        <v>-3.768275022506714</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.245738077163745</v>
+        <v>-6.29947957992554</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1863647580146739</v>
+        <v>0.9659337997436523</v>
       </c>
       <c r="E13" t="n">
-        <v>1.624357903003705</v>
+        <v>-1.046118927001951</v>
       </c>
       <c r="F13" t="n">
-        <v>1.151633739471436</v>
+        <v>-0.9198103547096252</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.64531135559082</v>
+        <v>0.2131919711828231</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.316720008850098</v>
+        <v>0.3013092875480652</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1075388908385779</v>
+        <v>1.245738077163745</v>
       </c>
       <c r="D14" t="n">
-        <v>2.011311626434347</v>
+        <v>0.1863647580146739</v>
       </c>
       <c r="E14" t="n">
-        <v>0.675841426849348</v>
+        <v>1.624357903003705</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4346306324005127</v>
+        <v>1.151633739471436</v>
       </c>
       <c r="G14" t="n">
-        <v>7.040069103240967</v>
+        <v>-5.64531135559082</v>
       </c>
       <c r="H14" t="n">
-        <v>2.582127332687378</v>
+        <v>-1.316720008850098</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.805893659591699</v>
+        <v>0.1075388908385779</v>
       </c>
       <c r="D15" t="n">
-        <v>2.456681728363033</v>
+        <v>2.011311626434347</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.3629340231418602</v>
+        <v>0.675841426849348</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09285151958465571</v>
+        <v>-0.4346306324005127</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7751879692077637</v>
+        <v>7.040069103240967</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.1513418704271316</v>
+        <v>2.582127332687378</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.720451354980446</v>
+        <v>2.805893659591699</v>
       </c>
       <c r="D16" t="n">
-        <v>1.925141620635989</v>
+        <v>2.456681728363033</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.02809072732925327</v>
+        <v>-0.3629340231418602</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0221438650041818</v>
+        <v>0.09285151958465571</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.3016147017478943</v>
+        <v>0.7751879692077637</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1111774742603302</v>
+        <v>-0.1513418704271316</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.6559253215789739</v>
+        <v>4.720451354980446</v>
       </c>
       <c r="D17" t="n">
-        <v>2.539989399909972</v>
+        <v>1.925141620635989</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1421575546264644</v>
+        <v>-0.02809072732925327</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3016147017478943</v>
+        <v>-0.0221438650041818</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2246456891298294</v>
+        <v>-0.3016147017478943</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0919352173805236</v>
+        <v>-0.1111774742603302</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.5849607467651348</v>
+        <v>-0.6559253215789739</v>
       </c>
       <c r="D18" t="n">
-        <v>2.491342687606815</v>
+        <v>2.539989399909972</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.09362407922744952</v>
+        <v>0.1421575546264644</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0120645882561802</v>
+        <v>0.3016147017478943</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1030835136771202</v>
+        <v>0.2246456891298294</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1064432710409164</v>
+        <v>0.0919352173805236</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.230958747863774</v>
+        <v>0.5849607467651348</v>
       </c>
       <c r="D19" t="n">
-        <v>3.317881345748901</v>
+        <v>2.491342687606815</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.5695523142814627</v>
+        <v>-0.09362407922744952</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0125227374956011</v>
+        <v>-0.0120645882561802</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06261368840932841</v>
+        <v>0.1030835136771202</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0209221355617046</v>
+        <v>0.1064432710409164</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.351141929626465</v>
+        <v>0.230958747863774</v>
       </c>
       <c r="D20" t="n">
-        <v>3.224694967269897</v>
+        <v>3.317881345748901</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.3476141095161438</v>
+        <v>-0.5695523142814627</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0786489024758338</v>
+        <v>-0.0125227374956011</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0143553335219621</v>
+        <v>0.06261368840932841</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.1611157059669494</v>
+        <v>-0.0209221355617046</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.7057792663574191</v>
+        <v>1.351141929626465</v>
       </c>
       <c r="D21" t="n">
-        <v>3.61713025569916</v>
+        <v>3.224694967269897</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1973931401968027</v>
+        <v>-0.3476141095161438</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0029016099870204</v>
+        <v>-0.0786489024758338</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0401643887162208</v>
+        <v>-0.0143553335219621</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0038179077673703</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.6601259231567385</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3.235907554626462</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.04604268670081965</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0178678091615438</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.0429132841527462</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.027030786499381</v>
+        <v>-0.1611157059669494</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-00-59/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-00-59/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.385556173324585</v>
+        <v>-2.143470001220703</v>
       </c>
       <c r="D2" t="n">
-        <v>2.812312602996826</v>
+        <v>2.89409122467041</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1285117015242577</v>
+        <v>0.02666953206062343</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0219911485910415</v>
+        <v>0.0542142912745475</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0158824957907199</v>
+        <v>-0.0145080499351024</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0395535230636596</v>
+        <v>0.0216857157647609</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.266226387023926</v>
+        <v>-2.163377571105957</v>
       </c>
       <c r="D3" t="n">
-        <v>2.866149425506591</v>
+        <v>2.95642032623291</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03211449086666163</v>
+        <v>0.1989836648106574</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0251981914043426</v>
+        <v>-0.0039706239476799</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0255036242306232</v>
+        <v>-0.0080939643085002</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0038179077673703</v>
+        <v>0.0329867228865623</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.475775194168091</v>
+        <v>-2.130269622802735</v>
       </c>
       <c r="D4" t="n">
-        <v>2.822203063964844</v>
+        <v>2.900108051300049</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.136699762195349</v>
+        <v>0.1112725704908369</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01328631862998</v>
+        <v>-0.0224492978304624</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0074830991216003</v>
+        <v>0.0106901414692401</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0119118718430399</v>
+        <v>0.0164933614432811</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.403434085845947</v>
+        <v>-2.321649217605591</v>
       </c>
       <c r="D5" t="n">
-        <v>2.584281539916992</v>
+        <v>2.889909553527832</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.100419497489932</v>
+        <v>-0.01538913398981086</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.022754730656743</v>
+        <v>-0.0187841057777404</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2061670273542404</v>
+        <v>-0.0056505035609006</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06368270516395561</v>
+        <v>0.0255036242306232</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.276368379592896</v>
+        <v>-2.246681690216064</v>
       </c>
       <c r="D6" t="n">
-        <v>2.15183401107788</v>
+        <v>2.861854076385498</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.987968981266023</v>
+        <v>0.0640860199928283</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0487165041267871</v>
+        <v>-0.008552113547921099</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2628247737884521</v>
+        <v>-0.001527163083665</v>
       </c>
       <c r="H6" t="n">
-        <v>0.072998397052288</v>
+        <v>0.0328340083360672</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.559272384643557</v>
+        <v>-2.385556173324585</v>
       </c>
       <c r="D7" t="n">
-        <v>1.362055969238278</v>
+        <v>2.812312602996826</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.492264986038209</v>
+        <v>-0.1285117015242577</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0171042270958423</v>
+        <v>-0.0219911485910415</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.4222606122493744</v>
+        <v>-0.0158824957907199</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0635299831628799</v>
+        <v>0.0395535230636596</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3.275786542892459</v>
+        <v>-2.266226387023926</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1545626640319781</v>
+        <v>2.866149425506591</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.795625829696655</v>
+        <v>0.03211449086666163</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0972802937030792</v>
+        <v>-0.0251981914043426</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4360050559043884</v>
+        <v>0.0255036242306232</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2139555513858795</v>
+        <v>-0.0038179077673703</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-4.113391685485841</v>
+        <v>-2.475775194168091</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.9623365402221682</v>
+        <v>2.822203063964844</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.931767368316651</v>
+        <v>-0.136699762195349</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0091629782691597</v>
+        <v>0.01328631862998</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0555887371301651</v>
+        <v>0.0074830991216003</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3749185502529144</v>
+        <v>-0.0119118718430399</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-4.743673324584959</v>
+        <v>-2.403434085845947</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.9649306297302217</v>
+        <v>2.584281539916992</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.303337550163267</v>
+        <v>-1.100419497489932</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0091629782691597</v>
+        <v>-0.022754730656743</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0584903471171855</v>
+        <v>-0.2061670273542404</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1916589736938476</v>
+        <v>0.06368270516395561</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-3.626681327819824</v>
+        <v>-2.276368379592896</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6835670471191406</v>
+        <v>2.15183401107788</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.28171181678772</v>
+        <v>-1.987968981266023</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.408974289894104</v>
+        <v>-0.0487165041267871</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4970915913581848</v>
+        <v>-0.2628247737884521</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3481931984424591</v>
+        <v>0.072998397052288</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2.572325563430785</v>
+        <v>-2.559272384643557</v>
       </c>
       <c r="D12" t="n">
-        <v>0.671577787399292</v>
+        <v>1.362055969238278</v>
       </c>
       <c r="E12" t="n">
-        <v>-3.271707224845887</v>
+        <v>-2.492264986038209</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9280570149421692</v>
+        <v>-0.0171042270958423</v>
       </c>
       <c r="G12" t="n">
-        <v>2.348929643630981</v>
+        <v>-0.4222606122493744</v>
       </c>
       <c r="H12" t="n">
-        <v>-3.768275022506714</v>
+        <v>0.0635299831628799</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-6.29947957992554</v>
+        <v>-3.275786542892459</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9659337997436523</v>
+        <v>0.1545626640319781</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.046118927001951</v>
+        <v>-2.795625829696655</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9198103547096252</v>
+        <v>0.0972802937030792</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2131919711828231</v>
+        <v>-0.4360050559043884</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3013092875480652</v>
+        <v>0.2139555513858795</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.245738077163745</v>
+        <v>-4.113391685485841</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1863647580146739</v>
+        <v>-0.9623365402221682</v>
       </c>
       <c r="E14" t="n">
-        <v>1.624357903003705</v>
+        <v>-2.931767368316651</v>
       </c>
       <c r="F14" t="n">
-        <v>1.151633739471436</v>
+        <v>-0.0091629782691597</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.64531135559082</v>
+        <v>0.0555887371301651</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.316720008850098</v>
+        <v>0.3749185502529144</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1075388908385779</v>
+        <v>-4.743673324584959</v>
       </c>
       <c r="D15" t="n">
-        <v>2.011311626434347</v>
+        <v>-0.9649306297302217</v>
       </c>
       <c r="E15" t="n">
-        <v>0.675841426849348</v>
+        <v>-3.303337550163267</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4346306324005127</v>
+        <v>0.0091629782691597</v>
       </c>
       <c r="G15" t="n">
-        <v>7.040069103240967</v>
+        <v>0.0584903471171855</v>
       </c>
       <c r="H15" t="n">
-        <v>2.582127332687378</v>
+        <v>0.1916589736938476</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.805893659591699</v>
+        <v>-3.626681327819824</v>
       </c>
       <c r="D16" t="n">
-        <v>2.456681728363033</v>
+        <v>0.6835670471191406</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3629340231418602</v>
+        <v>-2.28171181678772</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09285151958465571</v>
+        <v>-0.408974289894104</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7751879692077637</v>
+        <v>0.4970915913581848</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1513418704271316</v>
+        <v>0.3481931984424591</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4.720451354980446</v>
+        <v>-2.572325563430785</v>
       </c>
       <c r="D17" t="n">
-        <v>1.925141620635989</v>
+        <v>0.671577787399292</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.02809072732925327</v>
+        <v>-3.271707224845887</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0221438650041818</v>
+        <v>-0.9280570149421692</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.3016147017478943</v>
+        <v>2.348929643630981</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.1111774742603302</v>
+        <v>-3.768275022506714</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.6559253215789739</v>
+        <v>-6.29947957992554</v>
       </c>
       <c r="D18" t="n">
-        <v>2.539989399909972</v>
+        <v>0.9659337997436523</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1421575546264644</v>
+        <v>-1.046118927001951</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3016147017478943</v>
+        <v>-0.9198103547096252</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2246456891298294</v>
+        <v>0.2131919711828231</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0919352173805236</v>
+        <v>0.3013092875480652</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.5849607467651348</v>
+        <v>1.245738077163745</v>
       </c>
       <c r="D19" t="n">
-        <v>2.491342687606815</v>
+        <v>0.1863647580146739</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.09362407922744952</v>
+        <v>1.624357903003705</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0120645882561802</v>
+        <v>1.151633739471436</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1030835136771202</v>
+        <v>-5.64531135559082</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1064432710409164</v>
+        <v>-1.316720008850098</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.230958747863774</v>
+        <v>0.1075388908385779</v>
       </c>
       <c r="D20" t="n">
-        <v>3.317881345748901</v>
+        <v>2.011311626434347</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.5695523142814627</v>
+        <v>0.675841426849348</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0125227374956011</v>
+        <v>-0.4346306324005127</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06261368840932841</v>
+        <v>7.040069103240967</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0209221355617046</v>
+        <v>2.582127332687378</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>2.805893659591699</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.456681728363033</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.3629340231418602</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.09285151958465571</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7751879692077637</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.1513418704271316</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>4.720451354980446</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.925141620635989</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.02809072732925327</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.0221438650041818</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.3016147017478943</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.1111774742603302</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.6559253215789739</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.539989399909972</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.1421575546264644</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3016147017478943</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.2246456891298294</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0919352173805236</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5849607467651348</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.491342687606815</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.09362407922744952</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.0120645882561802</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1030835136771202</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1064432710409164</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.230958747863774</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.317881345748901</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.5695523142814627</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.0125227374956011</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.06261368840932841</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.0209221355617046</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>1.351141929626465</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D26" t="n">
         <v>3.224694967269897</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E26" t="n">
         <v>-0.3476141095161438</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F26" t="n">
         <v>-0.0786489024758338</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G26" t="n">
         <v>-0.0143553335219621</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H26" t="n">
         <v>-0.1611157059669494</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7057792663574191</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.61713025569916</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.1973931401968027</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0029016099870204</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0401643887162208</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0038179077673703</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6601259231567385</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.235907554626462</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.04604268670081965</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0178678091615438</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0429132841527462</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.027030786499381</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9756811141967799</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.334283685684206</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.05510960519313853</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.0041233403608202</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.0798706337809562</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.0476474873721599</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.6400001525878865</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.297549438476561</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.02418547868728584</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.0029016099870204</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0207694191485643</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0029016099870204</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.471990585327149</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.205180048942565</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.01620917022228236</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.007177666760981</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.0045814891345798</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0218384321779012</v>
       </c>
     </row>
   </sheetData>
